--- a/vanessa_ccir_3.xlsx
+++ b/vanessa_ccir_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shenj\sources\repos\computational-biology\treedata-book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E020AFB0-190F-4812-A8D3-7644BCC25CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A4F8EF-9627-46A9-8ED2-0126F4A03BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19965" yWindow="2865" windowWidth="38700" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="237">
   <si>
     <t>GCF</t>
   </si>
@@ -1609,13 +1609,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="45.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3006,11 +3006,13 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="A10:C11"/>
+      <selection activeCell="A25" sqref="A1:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="36.625" customWidth="1"/>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
     <col min="8" max="8" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3279,7 +3281,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="C11" t="s">
         <v>150</v>
@@ -4399,46 +4401,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC46F776-0F75-4D2C-A74E-ACFDE9A194E7}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.875" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>77</v>
       </c>
       <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
         <v>229</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>231</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>232</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>233</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4450,18 +4456,21 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4478,36 +4487,42 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4524,13 +4539,16 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4547,19 +4565,22 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>235</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4570,20 +4591,23 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
         <v>0</v>
       </c>
@@ -4593,19 +4617,22 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>235</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4616,20 +4643,23 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
         <v>0</v>
       </c>
@@ -4639,20 +4669,23 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>235</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
@@ -4662,19 +4695,22 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>235</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4685,19 +4721,22 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>235</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4708,20 +4747,23 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>235</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
       <c r="E14">
         <v>0</v>
       </c>
@@ -4731,13 +4773,16 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>235</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4746,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -4754,36 +4799,42 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
+        <v>236</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>236</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4800,13 +4851,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>236</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4823,13 +4877,16 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4846,13 +4903,16 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>236</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4869,13 +4929,16 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>236</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4892,13 +4955,16 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4915,13 +4981,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>236</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4938,13 +5007,16 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4961,13 +5033,16 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>236</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4984,13 +5059,16 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>236</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -5007,13 +5085,16 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>236</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -5030,13 +5111,16 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>236</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -5053,13 +5137,16 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>236</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5068,67 +5155,76 @@
         <v>0</v>
       </c>
       <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>1</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>236</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>236</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>1</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>236</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -5145,13 +5241,16 @@
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>236</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -5168,13 +5267,16 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" t="s">
+        <v>236</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -5191,13 +5293,16 @@
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
+        <v>236</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -5214,36 +5319,42 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>1</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>236</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5260,13 +5371,16 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>236</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5283,13 +5397,16 @@
       <c r="G38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>236</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5306,13 +5423,16 @@
       <c r="G39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>236</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5329,13 +5449,16 @@
       <c r="G40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
+        <v>236</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5352,13 +5475,16 @@
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>236</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5375,13 +5501,16 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>236</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5398,13 +5527,16 @@
       <c r="G43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>236</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5421,13 +5553,16 @@
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="s">
+        <v>236</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -5444,13 +5579,16 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>236</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -5467,13 +5605,16 @@
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>236</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -5488,38 +5629,44 @@
         <v>0</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" t="s">
+        <v>236</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
         <v>1</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>236</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -5536,13 +5683,16 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>236</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -5559,13 +5709,16 @@
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" t="s">
+        <v>236</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -5582,36 +5735,42 @@
       <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" t="s">
+        <v>236</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
         <v>1</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
       <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>1</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
+        <v>236</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -5626,6 +5785,9 @@
         <v>0</v>
       </c>
       <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>0</v>
       </c>
     </row>

--- a/vanessa_ccir_3.xlsx
+++ b/vanessa_ccir_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shenj\sources\repos\computational-biology\treedata-book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A4F8EF-9627-46A9-8ED2-0126F4A03BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C1789E-E7FB-488F-A850-16415613C6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="38700" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -33,158 +33,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="237">
-  <si>
-    <t>GCF</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>GCF_030534215.1</t>
-  </si>
-  <si>
-    <t>GCF_030533465.1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="142">
   <si>
     <t>GCF_030533465.1_ASM3053346v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533495.1</t>
-  </si>
-  <si>
     <t>GCF_030533495.1_ASM3053349v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533515.1</t>
-  </si>
-  <si>
     <t>GCF_030533515.1_ASM3053351v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533535.1</t>
-  </si>
-  <si>
     <t>GCF_030533535.1_ASM3053353v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533555.1</t>
-  </si>
-  <si>
     <t>GCF_030533555.1_ASM3053355v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533585.1</t>
-  </si>
-  <si>
     <t>GCF_030533585.1_ASM3053358v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533605.1</t>
-  </si>
-  <si>
     <t>GCF_030533605.1_ASM3053360v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533625.1</t>
-  </si>
-  <si>
     <t>GCF_030533625.1_ASM3053362v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533645.1</t>
-  </si>
-  <si>
     <t>GCF_030533645.1_ASM3053364v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533665.1</t>
-  </si>
-  <si>
     <t>GCF_030533665.1_ASM3053366v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533705.1</t>
-  </si>
-  <si>
     <t>GCF_030533705.1_ASM3053370v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533725.1</t>
-  </si>
-  <si>
     <t>GCF_030533725.1_ASM3053372v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533745.1</t>
-  </si>
-  <si>
     <t>GCF_030533745.1_ASM3053374v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533765.1</t>
-  </si>
-  <si>
     <t>GCF_030533765.1_ASM3053376v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533785.1</t>
-  </si>
-  <si>
     <t>GCF_030533785.1_ASM3053378v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533805.1</t>
-  </si>
-  <si>
     <t>GCF_030533805.1_ASM3053380v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533835.1</t>
-  </si>
-  <si>
     <t>GCF_030533835.1_ASM3053383v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533855.1</t>
-  </si>
-  <si>
     <t>GCF_030533855.1_ASM3053385v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533875.1</t>
-  </si>
-  <si>
     <t>GCF_030533875.1_ASM3053387v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533895.1</t>
-  </si>
-  <si>
     <t>GCF_030533895.1_ASM3053389v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533915.1</t>
-  </si>
-  <si>
     <t>GCF_030533915.1_ASM3053391v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533935.1</t>
-  </si>
-  <si>
     <t>GCF_030533935.1_ASM3053393v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533955.1</t>
-  </si>
-  <si>
     <t>GCF_030533955.1_ASM3053395v1_genomic</t>
   </si>
   <si>
-    <t>GCF_030533975.1</t>
-  </si>
-  <si>
     <t>GCF_030533975.1_ASM3053397v1_genomic</t>
   </si>
   <si>
@@ -266,198 +185,6 @@
     <t>GCA_028310565.1_PDT001597704.1_genomic</t>
   </si>
   <si>
-    <t>GCA</t>
-  </si>
-  <si>
-    <t>GCA_000296595.1</t>
-  </si>
-  <si>
-    <t>GCA_001722595.1</t>
-  </si>
-  <si>
-    <t>GCA_002097595.2</t>
-  </si>
-  <si>
-    <t>GCA_018093065.1</t>
-  </si>
-  <si>
-    <t>GCA_021725475.1</t>
-  </si>
-  <si>
-    <t>GCA_028306825.1</t>
-  </si>
-  <si>
-    <t>GCA_028306865.1</t>
-  </si>
-  <si>
-    <t>GCA_028310495.1</t>
-  </si>
-  <si>
-    <t>GCA_028310525.1</t>
-  </si>
-  <si>
-    <t>GCA_028310565.1</t>
-  </si>
-  <si>
-    <t>GCA_028331765.1</t>
-  </si>
-  <si>
-    <t>GCA_028334345.1</t>
-  </si>
-  <si>
-    <t>GCA_028334385.1</t>
-  </si>
-  <si>
-    <t>GCA_030533465.1</t>
-  </si>
-  <si>
-    <t>GCA_030533495.1</t>
-  </si>
-  <si>
-    <t>GCA_030533515.1</t>
-  </si>
-  <si>
-    <t>GCA_030533535.1</t>
-  </si>
-  <si>
-    <t>GCA_030533555.1</t>
-  </si>
-  <si>
-    <t>GCA_030533585.1</t>
-  </si>
-  <si>
-    <t>GCA_030533605.1</t>
-  </si>
-  <si>
-    <t>GCA_030533625.1</t>
-  </si>
-  <si>
-    <t>GCA_030533645.1</t>
-  </si>
-  <si>
-    <t>GCA_030533665.1</t>
-  </si>
-  <si>
-    <t>GCA_030533705.1</t>
-  </si>
-  <si>
-    <t>GCA_030533725.1</t>
-  </si>
-  <si>
-    <t>GCA_030533745.1</t>
-  </si>
-  <si>
-    <t>GCA_030533765.1</t>
-  </si>
-  <si>
-    <t>GCA_030533785.1</t>
-  </si>
-  <si>
-    <t>GCA_030533805.1</t>
-  </si>
-  <si>
-    <t>GCA_030533835.1</t>
-  </si>
-  <si>
-    <t>GCA_030533855.1</t>
-  </si>
-  <si>
-    <t>GCA_030533875.1</t>
-  </si>
-  <si>
-    <t>GCA_030533895.1</t>
-  </si>
-  <si>
-    <t>GCA_030533915.1</t>
-  </si>
-  <si>
-    <t>GCA_030533935.1</t>
-  </si>
-  <si>
-    <t>GCA_030533955.1</t>
-  </si>
-  <si>
-    <t>GCA_030533975.1</t>
-  </si>
-  <si>
-    <t>GCA_030533995.1</t>
-  </si>
-  <si>
-    <t>GCA_030534015.1</t>
-  </si>
-  <si>
-    <t>GCA_030534035.1</t>
-  </si>
-  <si>
-    <t>GCA_030534055.1</t>
-  </si>
-  <si>
-    <t>GCA_030534075.1</t>
-  </si>
-  <si>
-    <t>GCA_030534095.1</t>
-  </si>
-  <si>
-    <t>GCA_030534115.1</t>
-  </si>
-  <si>
-    <t>GCA_030534135.1</t>
-  </si>
-  <si>
-    <t>GCA_030534155.1</t>
-  </si>
-  <si>
-    <t>GCA_030534175.1</t>
-  </si>
-  <si>
-    <t>GCA_030534195.1</t>
-  </si>
-  <si>
-    <t>GCA_030534215.1</t>
-  </si>
-  <si>
-    <t>GCA_030534235.1</t>
-  </si>
-  <si>
-    <t>GCA_030534255.1</t>
-  </si>
-  <si>
-    <t>GCF_030533995.1</t>
-  </si>
-  <si>
-    <t>GCF_030534015.1</t>
-  </si>
-  <si>
-    <t>GCF_030534035.1</t>
-  </si>
-  <si>
-    <t>GCF_030534055.1</t>
-  </si>
-  <si>
-    <t>GCF_030534075.1</t>
-  </si>
-  <si>
-    <t>GCF_030534095.1</t>
-  </si>
-  <si>
-    <t>GCF_030534115.1</t>
-  </si>
-  <si>
-    <t>GCF_030534135.1</t>
-  </si>
-  <si>
-    <t>GCF_030534155.1</t>
-  </si>
-  <si>
-    <t>GCF_030534175.1</t>
-  </si>
-  <si>
-    <t>GCF_030534195.1</t>
-  </si>
-  <si>
-    <t>GCF_030534235.1</t>
-  </si>
-  <si>
     <t>Strain</t>
   </si>
   <si>
@@ -479,9 +206,6 @@
     <t>Project</t>
   </si>
   <si>
-    <t>GCF_000296595.1</t>
-  </si>
-  <si>
     <t>08BA02176</t>
   </si>
   <si>
@@ -500,9 +224,6 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>GCF_001722595.1</t>
-  </si>
-  <si>
     <t>NML151290</t>
   </si>
   <si>
@@ -512,21 +233,12 @@
     <t>Contig</t>
   </si>
   <si>
-    <t>GCF_002097595.2</t>
-  </si>
-  <si>
     <t>M92</t>
   </si>
   <si>
-    <t>GCF_018093065.1</t>
-  </si>
-  <si>
     <t>CBS2016-05</t>
   </si>
   <si>
-    <t>GCF_021725475.1</t>
-  </si>
-  <si>
     <t>ATR-20003</t>
   </si>
   <si>
@@ -710,18 +422,12 @@
     <t>SA02-SX</t>
   </si>
   <si>
-    <t>GCF_030534255.1</t>
-  </si>
-  <si>
     <t>SA01-SX</t>
   </si>
   <si>
     <t>GCA_028310565.1PDT001597704.1_genomic</t>
   </si>
   <si>
-    <t>GCA_028334405.1</t>
-  </si>
-  <si>
     <t>msrA</t>
   </si>
   <si>
@@ -744,6 +450,15 @@
   </si>
   <si>
     <t>China</t>
+  </si>
+  <si>
+    <t>GCA_028334405.1_PDT001597733.1_genomic</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -1227,11 +942,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1609,9 +1322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="111" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1619,1381 +1330,1381 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>77</v>
+      <c r="A1" t="s">
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>78</v>
+      <c r="A2" t="s">
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>79</v>
+      <c r="A3" t="s">
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>80</v>
+      <c r="A4" t="s">
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>81</v>
+      <c r="A5" t="s">
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>2016</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>82</v>
+      <c r="A6" t="s">
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>2020</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
         <v>84</v>
       </c>
-      <c r="B8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="E14" t="s">
         <v>85</v>
       </c>
-      <c r="B9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
         <v>86</v>
       </c>
-      <c r="B10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="E15" t="s">
         <v>87</v>
       </c>
-      <c r="B12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" t="s">
-        <v>152</v>
-      </c>
-      <c r="G12" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
         <v>89</v>
       </c>
-      <c r="B14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" t="s">
-        <v>158</v>
-      </c>
-      <c r="H14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
         <v>90</v>
       </c>
-      <c r="B15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
         <v>91</v>
       </c>
-      <c r="B16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="B17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" t="s">
-        <v>185</v>
-      </c>
-      <c r="F17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" t="s">
         <v>93</v>
       </c>
-      <c r="B18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
         <v>94</v>
       </c>
-      <c r="B19" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" t="s">
-        <v>185</v>
-      </c>
-      <c r="F19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
         <v>95</v>
       </c>
-      <c r="B20" t="s">
-        <v>236</v>
-      </c>
-      <c r="C20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
         <v>96</v>
       </c>
-      <c r="B21" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" t="s">
-        <v>152</v>
-      </c>
-      <c r="G21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C22" t="s">
-        <v>192</v>
-      </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E22" s="1">
         <v>44851</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
         <v>98</v>
       </c>
-      <c r="B23" t="s">
-        <v>236</v>
-      </c>
-      <c r="C23" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" t="s">
-        <v>185</v>
-      </c>
-      <c r="F23" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
         <v>99</v>
       </c>
-      <c r="B24" t="s">
-        <v>236</v>
-      </c>
-      <c r="C24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
         <v>100</v>
       </c>
-      <c r="B25" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" t="s">
-        <v>185</v>
-      </c>
-      <c r="F25" t="s">
-        <v>152</v>
-      </c>
-      <c r="G25" t="s">
-        <v>154</v>
-      </c>
-      <c r="H25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" t="s">
         <v>101</v>
       </c>
-      <c r="B26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F26" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" t="s">
         <v>102</v>
       </c>
-      <c r="B27" t="s">
-        <v>236</v>
-      </c>
-      <c r="C27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D27" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" t="s">
-        <v>185</v>
-      </c>
-      <c r="F27" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" t="s">
-        <v>154</v>
-      </c>
-      <c r="H27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
         <v>103</v>
       </c>
-      <c r="B28" t="s">
-        <v>236</v>
-      </c>
-      <c r="C28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" t="s">
-        <v>185</v>
-      </c>
-      <c r="F28" t="s">
-        <v>152</v>
-      </c>
-      <c r="G28" t="s">
-        <v>154</v>
-      </c>
-      <c r="H28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
         <v>104</v>
       </c>
-      <c r="B29" t="s">
-        <v>236</v>
-      </c>
-      <c r="C29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D29" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" t="s">
-        <v>185</v>
-      </c>
-      <c r="F29" t="s">
-        <v>152</v>
-      </c>
-      <c r="G29" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
         <v>105</v>
       </c>
-      <c r="B30" t="s">
-        <v>236</v>
-      </c>
-      <c r="C30" t="s">
-        <v>200</v>
-      </c>
-      <c r="D30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" t="s">
-        <v>201</v>
-      </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s">
         <v>106</v>
       </c>
-      <c r="B31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C31" t="s">
-        <v>202</v>
-      </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H31" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
         <v>107</v>
       </c>
-      <c r="B32" t="s">
-        <v>236</v>
-      </c>
-      <c r="C32" t="s">
-        <v>203</v>
-      </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
         <v>108</v>
       </c>
-      <c r="B33" t="s">
-        <v>236</v>
-      </c>
-      <c r="C33" t="s">
-        <v>204</v>
-      </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" t="s">
         <v>109</v>
       </c>
-      <c r="B34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C34" t="s">
-        <v>205</v>
-      </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E34" s="1">
         <v>44629</v>
       </c>
       <c r="F34" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H34" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
         <v>110</v>
       </c>
-      <c r="B35" t="s">
-        <v>236</v>
-      </c>
-      <c r="C35" t="s">
-        <v>206</v>
-      </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H35" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
         <v>111</v>
       </c>
-      <c r="B36" t="s">
-        <v>236</v>
-      </c>
-      <c r="C36" t="s">
-        <v>207</v>
-      </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="F36" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" t="s">
         <v>112</v>
       </c>
-      <c r="B37" t="s">
-        <v>236</v>
-      </c>
-      <c r="C37" t="s">
-        <v>208</v>
-      </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
         <v>113</v>
       </c>
-      <c r="B38" t="s">
-        <v>236</v>
-      </c>
-      <c r="C38" t="s">
-        <v>209</v>
-      </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
         <v>114</v>
       </c>
-      <c r="B39" t="s">
-        <v>236</v>
-      </c>
-      <c r="C39" t="s">
-        <v>210</v>
-      </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="F39" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
         <v>115</v>
       </c>
-      <c r="B40" t="s">
-        <v>236</v>
-      </c>
-      <c r="C40" t="s">
-        <v>211</v>
-      </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="F40" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H40" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" t="s">
         <v>116</v>
       </c>
-      <c r="B41" t="s">
-        <v>236</v>
-      </c>
-      <c r="C41" t="s">
-        <v>212</v>
-      </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="F41" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H41" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" t="s">
         <v>117</v>
       </c>
-      <c r="B42" t="s">
-        <v>236</v>
-      </c>
-      <c r="C42" t="s">
-        <v>213</v>
-      </c>
       <c r="D42" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H42" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
         <v>118</v>
       </c>
-      <c r="B43" t="s">
-        <v>236</v>
-      </c>
-      <c r="C43" t="s">
-        <v>214</v>
-      </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E43" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="F43" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H43" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" t="s">
         <v>119</v>
       </c>
-      <c r="B44" t="s">
-        <v>236</v>
-      </c>
-      <c r="C44" t="s">
-        <v>216</v>
-      </c>
-      <c r="D44" t="s">
-        <v>150</v>
-      </c>
-      <c r="E44" t="s">
-        <v>215</v>
-      </c>
       <c r="F44" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H44" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>120</v>
+      <c r="A45" t="s">
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="F45" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H45" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>121</v>
+      <c r="A46" t="s">
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="F46" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H46" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>122</v>
+      <c r="A47" t="s">
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E47" s="1">
         <v>44320</v>
       </c>
       <c r="F47" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H47" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>123</v>
+      <c r="A48" t="s">
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E48" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="F48" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H48" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>124</v>
+      <c r="A49" t="s">
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>221</v>
+        <v>125</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="F49" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G49" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H49" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>125</v>
+      <c r="A50" t="s">
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E50" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="F50" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H50" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>126</v>
+      <c r="A51" t="s">
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s">
-        <v>223</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E51" s="1">
         <v>44320</v>
       </c>
       <c r="F51" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H51" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>127</v>
+      <c r="A52" t="s">
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H52" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>128</v>
+      <c r="A53" t="s">
+        <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E53" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H53" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3003,1395 +2714,1076 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B78C47-7B7D-4542-8E72-BB0C9A0A8FE0}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:H53"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.625" customWidth="1"/>
-    <col min="2" max="2" width="35.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>2016</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5">
-        <v>2016</v>
-      </c>
-      <c r="G5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6">
-        <v>2020</v>
-      </c>
-      <c r="G6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
         <v>89</v>
       </c>
-      <c r="C14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" t="s">
-        <v>182</v>
-      </c>
-      <c r="F15" t="s">
-        <v>183</v>
-      </c>
-      <c r="G15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44851</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>188</v>
-      </c>
-      <c r="E18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H19" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" t="s">
-        <v>152</v>
-      </c>
-      <c r="H21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="1">
-        <v>44851</v>
-      </c>
-      <c r="G22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" t="s">
-        <v>152</v>
-      </c>
-      <c r="H23" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44629</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" t="s">
-        <v>185</v>
-      </c>
-      <c r="G24" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" t="s">
-        <v>185</v>
-      </c>
-      <c r="G25" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" t="s">
-        <v>185</v>
-      </c>
-      <c r="G27" t="s">
-        <v>152</v>
-      </c>
-      <c r="H27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" t="s">
-        <v>185</v>
-      </c>
-      <c r="G28" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" t="s">
-        <v>200</v>
-      </c>
-      <c r="E30" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" t="s">
-        <v>201</v>
-      </c>
-      <c r="G30" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>202</v>
-      </c>
-      <c r="E31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" t="s">
-        <v>201</v>
-      </c>
-      <c r="G31" t="s">
-        <v>152</v>
-      </c>
-      <c r="H31" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>203</v>
-      </c>
-      <c r="E32" t="s">
-        <v>150</v>
-      </c>
-      <c r="F32" t="s">
-        <v>201</v>
-      </c>
-      <c r="G32" t="s">
-        <v>152</v>
-      </c>
-      <c r="H32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" t="s">
-        <v>204</v>
-      </c>
-      <c r="E33" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33" t="s">
-        <v>201</v>
-      </c>
-      <c r="G33" t="s">
-        <v>152</v>
-      </c>
-      <c r="H33" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>205</v>
-      </c>
-      <c r="E34" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34" s="1">
-        <v>44629</v>
-      </c>
-      <c r="G34" t="s">
-        <v>152</v>
-      </c>
-      <c r="H34" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" t="s">
-        <v>206</v>
-      </c>
-      <c r="E35" t="s">
-        <v>150</v>
-      </c>
-      <c r="F35" t="s">
-        <v>201</v>
-      </c>
-      <c r="G35" t="s">
-        <v>152</v>
-      </c>
-      <c r="H35" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" t="s">
-        <v>207</v>
-      </c>
-      <c r="E36" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" t="s">
-        <v>201</v>
-      </c>
-      <c r="G36" t="s">
-        <v>152</v>
-      </c>
-      <c r="H36" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" t="s">
-        <v>208</v>
-      </c>
-      <c r="E37" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" t="s">
-        <v>201</v>
-      </c>
-      <c r="G37" t="s">
-        <v>152</v>
-      </c>
-      <c r="H37" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" t="s">
-        <v>209</v>
-      </c>
-      <c r="E38" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" t="s">
-        <v>201</v>
-      </c>
-      <c r="G38" t="s">
-        <v>152</v>
-      </c>
-      <c r="H38" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" t="s">
-        <v>210</v>
-      </c>
-      <c r="E39" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" t="s">
-        <v>201</v>
-      </c>
-      <c r="G39" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
         <v>129</v>
       </c>
-      <c r="D40" t="s">
-        <v>211</v>
-      </c>
-      <c r="E40" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40" t="s">
-        <v>201</v>
-      </c>
-      <c r="G40" t="s">
-        <v>152</v>
-      </c>
-      <c r="H40" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E41" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41" t="s">
-        <v>201</v>
-      </c>
-      <c r="G41" t="s">
-        <v>152</v>
-      </c>
-      <c r="H41" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" t="s">
-        <v>213</v>
-      </c>
-      <c r="E42" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" t="s">
-        <v>201</v>
-      </c>
-      <c r="G42" t="s">
-        <v>152</v>
-      </c>
-      <c r="H42" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" t="s">
-        <v>132</v>
-      </c>
-      <c r="D43" t="s">
-        <v>214</v>
-      </c>
-      <c r="E43" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" t="s">
-        <v>215</v>
-      </c>
-      <c r="G43" t="s">
-        <v>152</v>
-      </c>
-      <c r="H43" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" t="s">
         <v>119</v>
       </c>
-      <c r="C44" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" t="s">
-        <v>216</v>
-      </c>
-      <c r="E44" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" t="s">
-        <v>215</v>
-      </c>
-      <c r="G44" t="s">
-        <v>152</v>
-      </c>
-      <c r="H44" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" t="s">
-        <v>217</v>
-      </c>
-      <c r="E45" t="s">
-        <v>150</v>
-      </c>
-      <c r="F45" t="s">
-        <v>215</v>
-      </c>
-      <c r="G45" t="s">
-        <v>152</v>
-      </c>
-      <c r="H45" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" t="s">
-        <v>218</v>
-      </c>
-      <c r="E46" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" t="s">
-        <v>215</v>
-      </c>
-      <c r="G46" t="s">
-        <v>152</v>
-      </c>
-      <c r="H46" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" t="s">
-        <v>219</v>
-      </c>
-      <c r="E47" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" s="1">
-        <v>44320</v>
-      </c>
-      <c r="G47" t="s">
-        <v>152</v>
-      </c>
-      <c r="H47" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" t="s">
-        <v>220</v>
-      </c>
-      <c r="E48" t="s">
-        <v>150</v>
-      </c>
-      <c r="F48" t="s">
-        <v>215</v>
-      </c>
-      <c r="G48" t="s">
-        <v>152</v>
-      </c>
-      <c r="H48" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D49" t="s">
-        <v>221</v>
-      </c>
-      <c r="E49" t="s">
-        <v>150</v>
-      </c>
-      <c r="F49" t="s">
-        <v>215</v>
-      </c>
-      <c r="G49" t="s">
-        <v>152</v>
-      </c>
-      <c r="H49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" t="s">
-        <v>222</v>
-      </c>
-      <c r="E50" t="s">
-        <v>150</v>
-      </c>
-      <c r="F50" t="s">
-        <v>215</v>
-      </c>
-      <c r="G50" t="s">
-        <v>152</v>
-      </c>
-      <c r="H50" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>223</v>
-      </c>
-      <c r="E51" t="s">
-        <v>150</v>
-      </c>
-      <c r="F51" s="1">
-        <v>44320</v>
-      </c>
-      <c r="G51" t="s">
-        <v>152</v>
-      </c>
-      <c r="H51" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" t="s">
-        <v>224</v>
-      </c>
-      <c r="E52" t="s">
-        <v>150</v>
-      </c>
-      <c r="F52" t="s">
-        <v>215</v>
-      </c>
-      <c r="G52" t="s">
-        <v>152</v>
-      </c>
-      <c r="H52" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" t="s">
-        <v>225</v>
-      </c>
-      <c r="D53" t="s">
-        <v>226</v>
-      </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>215</v>
-      </c>
-      <c r="G53" t="s">
-        <v>152</v>
-      </c>
-      <c r="H53" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4403,9 +3795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC46F776-0F75-4D2C-A74E-ACFDE9A194E7}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4415,36 +3805,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="F1" t="s">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="G1" t="s">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="H1" t="s">
-        <v>234</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>78</v>
+      <c r="A2" t="s">
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4466,11 +3856,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>79</v>
+      <c r="A3" t="s">
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4492,11 +3882,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>80</v>
+      <c r="A4" t="s">
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4518,11 +3908,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>81</v>
+      <c r="A5" t="s">
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4544,11 +3934,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>82</v>
+      <c r="A6" t="s">
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4570,11 +3960,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>83</v>
+      <c r="A7" t="s">
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4596,11 +3986,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>84</v>
+      <c r="A8" t="s">
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4622,11 +4012,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>85</v>
+      <c r="A9" t="s">
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4648,11 +4038,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>86</v>
+      <c r="A10" t="s">
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4674,11 +4064,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>228</v>
+      <c r="A11" t="s">
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4700,11 +4090,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>87</v>
+      <c r="A12" t="s">
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4726,11 +4116,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>88</v>
+      <c r="A13" t="s">
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4752,11 +4142,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>89</v>
+      <c r="A14" t="s">
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4778,11 +4168,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>90</v>
+      <c r="A15" t="s">
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4804,11 +4194,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>91</v>
+      <c r="A16" t="s">
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4830,11 +4220,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>92</v>
+      <c r="A17" t="s">
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4856,11 +4246,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>93</v>
+      <c r="A18" t="s">
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4882,11 +4272,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>94</v>
+      <c r="A19" t="s">
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4908,11 +4298,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>95</v>
+      <c r="A20" t="s">
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4934,11 +4324,11 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>96</v>
+      <c r="A21" t="s">
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4960,11 +4350,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>97</v>
+      <c r="A22" t="s">
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4986,11 +4376,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>98</v>
+      <c r="A23" t="s">
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -5012,11 +4402,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>99</v>
+      <c r="A24" t="s">
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -5038,11 +4428,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>100</v>
+      <c r="A25" t="s">
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -5064,11 +4454,11 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>101</v>
+      <c r="A26" t="s">
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -5090,11 +4480,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>102</v>
+      <c r="A27" t="s">
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -5116,11 +4506,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>103</v>
+      <c r="A28" t="s">
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -5142,11 +4532,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>104</v>
+      <c r="A29" t="s">
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5168,11 +4558,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>105</v>
+      <c r="A30" t="s">
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -5194,11 +4584,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>106</v>
+      <c r="A31" t="s">
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -5220,11 +4610,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>107</v>
+      <c r="A32" t="s">
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -5246,11 +4636,11 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>108</v>
+      <c r="A33" t="s">
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -5272,11 +4662,11 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>109</v>
+      <c r="A34" t="s">
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -5298,11 +4688,11 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>110</v>
+      <c r="A35" t="s">
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -5324,11 +4714,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>111</v>
+      <c r="A36" t="s">
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5350,11 +4740,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>112</v>
+      <c r="A37" t="s">
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5376,11 +4766,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>113</v>
+      <c r="A38" t="s">
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5402,11 +4792,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>114</v>
+      <c r="A39" t="s">
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5428,11 +4818,11 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>115</v>
+      <c r="A40" t="s">
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5454,11 +4844,11 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>116</v>
+      <c r="A41" t="s">
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5480,11 +4870,11 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>117</v>
+      <c r="A42" t="s">
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5506,11 +4896,11 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>118</v>
+      <c r="A43" t="s">
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5532,11 +4922,11 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>119</v>
+      <c r="A44" t="s">
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5558,11 +4948,11 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>120</v>
+      <c r="A45" t="s">
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -5584,11 +4974,11 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>121</v>
+      <c r="A46" t="s">
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -5610,11 +5000,11 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>122</v>
+      <c r="A47" t="s">
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -5636,11 +5026,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>123</v>
+      <c r="A48" t="s">
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -5662,11 +5052,11 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>124</v>
+      <c r="A49" t="s">
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -5688,11 +5078,11 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>125</v>
+      <c r="A50" t="s">
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -5714,11 +5104,11 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>126</v>
+      <c r="A51" t="s">
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -5740,11 +5130,11 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>127</v>
+      <c r="A52" t="s">
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -5766,11 +5156,11 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>128</v>
+      <c r="A53" t="s">
+        <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C53">
         <v>0</v>
